--- a/biology/Zoologie/Bobtail_américain/Bobtail_américain.xlsx
+++ b/biology/Zoologie/Bobtail_américain/Bobtail_américain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bobtail_am%C3%A9ricain</t>
+          <t>Bobtail_américain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'American Bobtail ou bobtail américain est une nouvelle race de chat originaire des États-Unis. Ce chat de taille moyenne à grande est caractérisé par sa quasi-absence de queue.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bobtail_am%C3%A9ricain</t>
+          <t>Bobtail_américain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La race fut découverte en 1965 par un couple d'Américains, les Sanders, dans l'État de l'Arizona. Le chaton avait une allure sauvage et la queue courte et remontée sur le dos. Ils décidèrent immédiatement de l'adopter et le nommèrent Yodie. On le croisa avec une Siamoise. Un des chatons nés de cette portée fut croisé avec un chat crème et ce sont les chatons nés de cette union qui sont les premiers sujets de la race.
 D'abord, il n'existait que le poil court, mais on croisa la race avec des Persans pour obtenir une variété à poils mi-longs.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bobtail_am%C3%A9ricain</t>
+          <t>Bobtail_américain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Standards</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'absence de queue est due à une mutation génétique naturelle. D'une manière générale, le Bobtail est un chat de taille moyenne à grande dont la croissance est lente, jusqu'à deux ou trois ans.
 Le corps est athlétique et donne une impression de puissance. Les mâles sont plus costauds que les femelles, bien que tous les deux doivent avoir le corps bien musclé. Les pattes sont proportionnées au corps, avec une ossature massive et une musculature puissante. Les antérieurs sont légèrement plus courts que les postérieurs. Les pieds sont ronds et larges.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bobtail_am%C3%A9ricain</t>
+          <t>Bobtail_américain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Caractère</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bobtails sont réputés pour être des chats patients, actifs mais doux. Ils seraient attachés à leur propriétaire et n'aimeraient pas la solitude. Ils s'entendraient généralement bien avec les chiens. On dit qu'ils sont également des bons chasseurs.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bobtail_am%C3%A9ricain</t>
+          <t>Bobtail_américain</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,9 +629,11 @@
           <t>Santé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'American Bobtail n'a pas de problèmes de santé particuliers. Son espérance de vie se situe entre onze et quinze ans[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'American Bobtail n'a pas de problèmes de santé particuliers. Son espérance de vie se situe entre onze et quinze ans.
 </t>
         </is>
       </c>
